--- a/Copia de tickets.xlsx
+++ b/Copia de tickets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28710"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCADDEA1-125B-4C08-8E08-72369C7956C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCAF2E0-9BB2-40F6-BE4A-EFFD8E555F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2EB8BF70-B9ED-42C7-89F6-E78D949C1EDE}"/>
+    <workbookView xWindow="-22275" yWindow="2310" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{2EB8BF70-B9ED-42C7-89F6-E78D949C1EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="107">
   <si>
     <t>idTicket</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>fkAreaReporte</t>
+  </si>
+  <si>
+    <t>ch</t>
   </si>
 </sst>
 </file>
@@ -754,9 +757,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E38EF9-CBC4-4321-8279-21EA501A9F7A}">
-  <dimension ref="C1:Q28"/>
+  <dimension ref="C1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F7" workbookViewId="0">
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
@@ -1088,7 +1091,7 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>55</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>101</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>105</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>76</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>56</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>57</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>72</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>58</v>
       </c>
@@ -1404,6 +1407,9 @@
       </c>
       <c r="M28" t="s">
         <v>63</v>
+      </c>
+      <c r="R28" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1428,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216110E0-9BAF-43C1-ADED-7A8224649DA2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
